--- a/data/trans_dic/P43B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43B_R-Estudios-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9300131399913628</v>
+        <v>0.9313309560746266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9397685672222745</v>
+        <v>0.9376370592270806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9321985818258548</v>
+        <v>0.9298582455540968</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9613552162820856</v>
+        <v>0.9624008921638834</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9729810985821877</v>
+        <v>0.9732166487207256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9682580729103699</v>
+        <v>0.9678101615711096</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.900557227916961</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8426246781780605</v>
+        <v>0.8426246781780606</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7770402945931748</v>
+        <v>0.7723595473233635</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8786389581520833</v>
+        <v>0.8796978753906585</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8171680012802541</v>
+        <v>0.8191911734827778</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8424954933946985</v>
+        <v>0.8425219790993373</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9204092094592419</v>
+        <v>0.9206754702685731</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8636074016485122</v>
+        <v>0.8641529904380107</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4727579739066965</v>
+        <v>0.4656281234106424</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5366139333305152</v>
+        <v>0.5317343369938443</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5075308712382619</v>
+        <v>0.5092334152915158</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6360571335906526</v>
+        <v>0.6403325975703041</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6656525170298834</v>
+        <v>0.6631210739632613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5996648319171044</v>
+        <v>0.6017696104943094</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8388444982067083</v>
+        <v>0.8373942795417547</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.861646825248644</v>
+        <v>0.860047590782653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8000181192651633</v>
+        <v>0.7988702076612403</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8749140407784235</v>
+        <v>0.8730385353848547</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8946178582514361</v>
+        <v>0.8941418674426024</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.832417524824598</v>
+        <v>0.8332772960360253</v>
       </c>
     </row>
     <row r="16">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>773585</v>
+        <v>774681</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>571233</v>
+        <v>569937</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>401765</v>
+        <v>400756</v>
       </c>
     </row>
     <row r="7">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>799655</v>
+        <v>800525</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>591421</v>
+        <v>591564</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>417306</v>
+        <v>417113</v>
       </c>
     </row>
     <row r="8">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>499775</v>
+        <v>496765</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>732479</v>
+        <v>733362</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>598035</v>
+        <v>599516</v>
       </c>
     </row>
     <row r="11">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>541875</v>
+        <v>541892</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>767301</v>
+        <v>767523</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>632022</v>
+        <v>632421</v>
       </c>
     </row>
     <row r="12">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74917</v>
+        <v>73787</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>129888</v>
+        <v>128707</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>151806</v>
+        <v>152315</v>
       </c>
     </row>
     <row r="15">
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>100795</v>
+        <v>101472</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>161122</v>
+        <v>160509</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>179364</v>
+        <v>179994</v>
       </c>
     </row>
     <row r="16">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1370208</v>
+        <v>1367839</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1450623</v>
+        <v>1447931</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1169572</v>
+        <v>1167894</v>
       </c>
     </row>
     <row r="19">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1429126</v>
+        <v>1426062</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1506131</v>
+        <v>1505330</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1216938</v>
+        <v>1218195</v>
       </c>
     </row>
     <row r="20">
